--- a/Code/Results/Cases/Case_2_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_116/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.052610081944238</v>
+        <v>1.195153607888756</v>
       </c>
       <c r="C2">
-        <v>1.175575341187084</v>
+        <v>0.4250335635850888</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08241130018525666</v>
+        <v>0.2390384550666873</v>
       </c>
       <c r="F2">
-        <v>2.245316874525244</v>
+        <v>2.642434881980307</v>
       </c>
       <c r="G2">
-        <v>0.0007822687288102294</v>
+        <v>0.002469478123309374</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7710043372858948</v>
+        <v>0.9298523480855465</v>
       </c>
       <c r="J2">
-        <v>0.0437410349157048</v>
+        <v>0.07674031380287261</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8976432701301107</v>
+        <v>0.5794862744444842</v>
       </c>
       <c r="N2">
-        <v>0.739876328047707</v>
+        <v>1.487528214287565</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.633708926634313</v>
+        <v>1.08599095788918</v>
       </c>
       <c r="C3">
-        <v>1.011880931972627</v>
+        <v>0.3826800574205151</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07767433091236065</v>
+        <v>0.2387103092931895</v>
       </c>
       <c r="F3">
-        <v>2.038053508627371</v>
+        <v>2.609556416485916</v>
       </c>
       <c r="G3">
-        <v>0.0007908150442962814</v>
+        <v>0.002474737504074486</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7160428172096331</v>
+        <v>0.9234423147897743</v>
       </c>
       <c r="J3">
-        <v>0.04335177765404197</v>
+        <v>0.07722489474246785</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7811219893991321</v>
+        <v>0.5521185960387314</v>
       </c>
       <c r="N3">
-        <v>0.789610785246353</v>
+        <v>1.506413811459538</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.380316272758876</v>
+        <v>1.019516279113759</v>
       </c>
       <c r="C4">
-        <v>0.9132206018316822</v>
+        <v>0.3568782838476352</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07481388460565874</v>
+        <v>0.2385590985326775</v>
       </c>
       <c r="F4">
-        <v>1.915468263580323</v>
+        <v>2.590954148733559</v>
       </c>
       <c r="G4">
-        <v>0.0007961949949764393</v>
+        <v>0.002478134767215045</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6845329041085648</v>
+        <v>0.920150138655174</v>
       </c>
       <c r="J4">
-        <v>0.04326385287940937</v>
+        <v>0.07756929171092253</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7106596372088276</v>
+        <v>0.5356303733642136</v>
       </c>
       <c r="N4">
-        <v>0.8218097067087839</v>
+        <v>1.518625668903734</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.277874406522017</v>
+        <v>0.9925645565521108</v>
       </c>
       <c r="C5">
-        <v>0.8734129489356519</v>
+        <v>0.3464140118927901</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07365964412339565</v>
+        <v>0.2385101806680101</v>
       </c>
       <c r="F5">
-        <v>1.866579025508045</v>
+        <v>2.58377087922706</v>
       </c>
       <c r="G5">
-        <v>0.0007984224324630646</v>
+        <v>0.00247956156725822</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6722033713587763</v>
+        <v>0.9189694931319821</v>
       </c>
       <c r="J5">
-        <v>0.04326290344975448</v>
+        <v>0.07772136029099386</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6821829275399267</v>
+        <v>0.5289904879460039</v>
       </c>
       <c r="N5">
-        <v>0.8353279200667281</v>
+        <v>1.52375657140588</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.260909495014346</v>
+        <v>0.9880974909277711</v>
       </c>
       <c r="C6">
-        <v>0.8668250458846956</v>
+        <v>0.3446794281148584</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07346865447203577</v>
+        <v>0.2385028268329812</v>
       </c>
       <c r="F6">
-        <v>1.858522285964696</v>
+        <v>2.582602060968753</v>
       </c>
       <c r="G6">
-        <v>0.0007987944631066292</v>
+        <v>0.002479801050757527</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.670185505199747</v>
+        <v>0.9187831422825994</v>
       </c>
       <c r="J6">
-        <v>0.04326476701155002</v>
+        <v>0.07774731752411057</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6774677578108026</v>
+        <v>0.5278927186395563</v>
       </c>
       <c r="N6">
-        <v>0.8375960018498603</v>
+        <v>1.524617870980158</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.378931573192517</v>
+        <v>1.01915224495923</v>
       </c>
       <c r="C7">
-        <v>0.9126822185799313</v>
+        <v>0.3567369572244843</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0747982727347587</v>
+        <v>0.2385583872981289</v>
       </c>
       <c r="F7">
-        <v>1.914804752426491</v>
+        <v>2.590855665726892</v>
       </c>
       <c r="G7">
-        <v>0.0007962248907470344</v>
+        <v>0.002478153837766947</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6843646194179982</v>
+        <v>0.9201335656023133</v>
       </c>
       <c r="J7">
-        <v>0.04326370274534241</v>
+        <v>0.07757129517030137</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.710274673612588</v>
+        <v>0.5355405050950779</v>
       </c>
       <c r="N7">
-        <v>0.8219904374370905</v>
+        <v>1.518694241190055</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.907292096644653</v>
+        <v>1.157398912503879</v>
       </c>
       <c r="C8">
-        <v>1.11870712128075</v>
+        <v>0.4103872311790724</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0807675853356784</v>
+        <v>0.2389149121691574</v>
       </c>
       <c r="F8">
-        <v>2.172812686429609</v>
+        <v>2.630768555514194</v>
       </c>
       <c r="G8">
-        <v>0.0007851891031848665</v>
+        <v>0.002471256781851396</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7515569984516048</v>
+        <v>0.9275080402742475</v>
       </c>
       <c r="J8">
-        <v>0.04357349667570887</v>
+        <v>0.07689763476517797</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8572201843583898</v>
+        <v>0.5699842719937322</v>
       </c>
       <c r="N8">
-        <v>0.756666662616027</v>
+        <v>1.493911852784112</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.980802786290326</v>
+        <v>1.432958644386758</v>
       </c>
       <c r="C9">
-        <v>1.540806174960778</v>
+        <v>0.5172603433704808</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09289015801594402</v>
+        <v>0.2400104589387482</v>
       </c>
       <c r="F9">
-        <v>2.721384160585956</v>
+        <v>2.72168329188267</v>
       </c>
       <c r="G9">
-        <v>0.0007645115209291456</v>
+        <v>0.002459057806668483</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9036479941051496</v>
+        <v>0.9471188295091366</v>
       </c>
       <c r="J9">
-        <v>0.04553704984025941</v>
+        <v>0.07595117220711955</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.15571705702817</v>
+        <v>0.6400451174903594</v>
       </c>
       <c r="N9">
-        <v>0.6428005743411589</v>
+        <v>1.450220288993698</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.80356278931896</v>
+        <v>1.638265611294912</v>
       </c>
       <c r="C10">
-        <v>1.867352923451165</v>
+        <v>0.5968737239617212</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1021087192848213</v>
+        <v>0.2410539280330752</v>
       </c>
       <c r="F10">
-        <v>3.159041667960935</v>
+        <v>2.796292662816455</v>
       </c>
       <c r="G10">
-        <v>0.0007497699682432267</v>
+        <v>0.002450894217336804</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.031836702535784</v>
+        <v>0.9647284474068414</v>
       </c>
       <c r="J10">
-        <v>0.04805619280440609</v>
+        <v>0.07548804680949672</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.384071735128799</v>
+        <v>0.6930765338651668</v>
       </c>
       <c r="N10">
-        <v>0.5694644033609677</v>
+        <v>1.421136146810042</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.188184696450776</v>
+        <v>1.732315588785696</v>
       </c>
       <c r="C11">
-        <v>2.020892172537003</v>
+        <v>0.6333470441033455</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1063859810754053</v>
+        <v>0.2415798017255142</v>
       </c>
       <c r="F11">
-        <v>3.367893551192111</v>
+        <v>2.831954939094089</v>
       </c>
       <c r="G11">
-        <v>0.0007431259787830744</v>
+        <v>0.002447351864318249</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.094781807210808</v>
+        <v>0.9734484945874442</v>
       </c>
       <c r="J11">
-        <v>0.0495021789991128</v>
+        <v>0.07532864387620108</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.490630674175549</v>
+        <v>0.7175457221779169</v>
       </c>
       <c r="N11">
-        <v>0.5387735530209099</v>
+        <v>1.40856535719692</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.335603237113389</v>
+        <v>1.768026127236624</v>
       </c>
       <c r="C12">
-        <v>2.079889710990699</v>
+        <v>0.6471967504994609</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1080192662704036</v>
+        <v>0.2417862420703756</v>
       </c>
       <c r="F12">
-        <v>3.448599229027025</v>
+        <v>2.845708695637626</v>
       </c>
       <c r="G12">
-        <v>0.0007406155708440955</v>
+        <v>0.002446034946219204</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.119386609692924</v>
+        <v>0.9768536349465649</v>
       </c>
       <c r="J12">
-        <v>0.05009943999368716</v>
+        <v>0.07527572630507251</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.531435278857032</v>
+        <v>0.726861502160375</v>
       </c>
       <c r="N12">
-        <v>0.5275781251197955</v>
+        <v>1.403900494790065</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.303770326022686</v>
+        <v>1.760330933387479</v>
       </c>
       <c r="C13">
-        <v>2.06714307147962</v>
+        <v>0.6442122579688316</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1076668776766923</v>
+        <v>0.2417414575510826</v>
       </c>
       <c r="F13">
-        <v>3.431142123159674</v>
+        <v>2.842735468045248</v>
       </c>
       <c r="G13">
-        <v>0.0007411560454129499</v>
+        <v>0.002446317481117927</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.114051533197326</v>
+        <v>0.9761156771883179</v>
       </c>
       <c r="J13">
-        <v>0.0499684835194607</v>
+        <v>0.07528679078764</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.522625949350441</v>
+        <v>0.7248529623381899</v>
       </c>
       <c r="N13">
-        <v>0.5299695464652387</v>
+        <v>1.404900903494649</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.200275657658835</v>
+        <v>1.735251585407013</v>
       </c>
       <c r="C14">
-        <v>2.02572792722458</v>
+        <v>0.6344856986647756</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1065200704892177</v>
+        <v>0.2415966396579243</v>
       </c>
       <c r="F14">
-        <v>3.374499494862675</v>
+        <v>2.833081464847538</v>
       </c>
       <c r="G14">
-        <v>0.0007429193563819773</v>
+        <v>0.002447243030563274</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.096790008244938</v>
+        <v>0.9737265662734842</v>
       </c>
       <c r="J14">
-        <v>0.04955027884009056</v>
+        <v>0.07532414069596172</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.493978192758519</v>
+        <v>0.7183111370032265</v>
       </c>
       <c r="N14">
-        <v>0.5378436842796717</v>
+        <v>1.408179660539453</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.137121854440181</v>
+        <v>1.719902294404847</v>
       </c>
       <c r="C15">
-        <v>2.0004758081501</v>
+        <v>0.6285328893791871</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1058194367199228</v>
+        <v>0.2415088839134221</v>
       </c>
       <c r="F15">
-        <v>3.34002182810957</v>
+        <v>2.827200613441562</v>
       </c>
       <c r="G15">
-        <v>0.0007440000462108793</v>
+        <v>0.002447813141888857</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.086320256928474</v>
+        <v>0.9722766179417732</v>
       </c>
       <c r="J15">
-        <v>0.04930080024321981</v>
+        <v>0.07534799027490635</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.476491782565674</v>
+        <v>0.7143105763092308</v>
       </c>
       <c r="N15">
-        <v>0.542723736023845</v>
+        <v>1.410200437362292</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.778658300612335</v>
+        <v>1.632132544315084</v>
       </c>
       <c r="C16">
-        <v>1.85743054459482</v>
+        <v>0.5944953698332824</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1018310003919751</v>
+        <v>0.2410205861161678</v>
       </c>
       <c r="F16">
-        <v>3.145606788189923</v>
+        <v>2.793996837607438</v>
       </c>
       <c r="G16">
-        <v>0.000750205137029518</v>
+        <v>0.00245112915334826</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.027824755634157</v>
+        <v>0.964172934662173</v>
       </c>
       <c r="J16">
-        <v>0.04796826931200826</v>
+        <v>0.07549950204625588</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.377167361194282</v>
+        <v>0.6914843750933528</v>
       </c>
       <c r="N16">
-        <v>0.5715273553982527</v>
+        <v>1.421971000135279</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.561591213249415</v>
+        <v>1.578457549946279</v>
       </c>
       <c r="C17">
-        <v>1.771047310269751</v>
+        <v>0.5736810201110529</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09940667862782249</v>
+        <v>0.2407341016840476</v>
       </c>
       <c r="F17">
-        <v>3.028982969642897</v>
+        <v>2.774069591008015</v>
       </c>
       <c r="G17">
-        <v>0.0007540253722891259</v>
+        <v>0.002453207195176988</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9931946501300501</v>
+        <v>0.9593840068890245</v>
       </c>
       <c r="J17">
-        <v>0.04723200708989594</v>
+        <v>0.0756056329902961</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.316966722553488</v>
+        <v>0.6775697448406817</v>
       </c>
       <c r="N17">
-        <v>0.5899097704142733</v>
+        <v>1.429361223814468</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.437694511590166</v>
+        <v>1.547646642996654</v>
       </c>
       <c r="C18">
-        <v>1.721822454768528</v>
+        <v>0.5617332590074398</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0980200439628014</v>
+        <v>0.2405741455227179</v>
       </c>
       <c r="F18">
-        <v>2.962808209031522</v>
+        <v>2.762769961275382</v>
       </c>
       <c r="G18">
-        <v>0.0007562287362172653</v>
+        <v>0.002454418562080288</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9737053176008033</v>
+        <v>0.9566962458493151</v>
       </c>
       <c r="J18">
-        <v>0.04683632131511928</v>
+        <v>0.0756714986204976</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.282588540322493</v>
+        <v>0.6695988698243838</v>
       </c>
       <c r="N18">
-        <v>0.6007312990911515</v>
+        <v>1.433673948496164</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.395901166964734</v>
+        <v>1.537225116222032</v>
       </c>
       <c r="C19">
-        <v>1.705230972819322</v>
+        <v>0.557692057999418</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09755184506754944</v>
+        <v>0.2405208171023112</v>
       </c>
       <c r="F19">
-        <v>2.940551782259604</v>
+        <v>2.758971875618641</v>
       </c>
       <c r="G19">
-        <v>0.0007569758950864639</v>
+        <v>0.00245483148510066</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9671773390499965</v>
+        <v>0.9557976408987372</v>
       </c>
       <c r="J19">
-        <v>0.04670693837025297</v>
+        <v>0.07569462559584395</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.27098928840951</v>
+        <v>0.6669056353969864</v>
       </c>
       <c r="N19">
-        <v>0.6044367532996873</v>
+        <v>1.435144805685859</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.584597657966356</v>
+        <v>1.584164964449712</v>
       </c>
       <c r="C20">
-        <v>1.78019435803543</v>
+        <v>0.5758942405773269</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09966393717646227</v>
+        <v>0.2407640997951468</v>
       </c>
       <c r="F20">
-        <v>3.041302731359309</v>
+        <v>2.776174103078091</v>
       </c>
       <c r="G20">
-        <v>0.0007536180971274845</v>
+        <v>0.002452984315471925</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9968359857609101</v>
+        <v>0.9598868853342708</v>
       </c>
       <c r="J20">
-        <v>0.04730746265669694</v>
+        <v>0.0755938356052539</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.323349091799997</v>
+        <v>0.6790476206715397</v>
       </c>
       <c r="N20">
-        <v>0.5879269280546424</v>
+        <v>1.428568094570551</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.23062404016656</v>
+        <v>1.742615382737824</v>
       </c>
       <c r="C21">
-        <v>2.037868140321734</v>
+        <v>0.6373415831452007</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1068565333924774</v>
+        <v>0.2416389784335884</v>
       </c>
       <c r="F21">
-        <v>3.391091039540555</v>
+        <v>2.83591030285757</v>
       </c>
       <c r="G21">
-        <v>0.0007424013085908142</v>
+        <v>0.002446970510505816</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.101838376806342</v>
+        <v>0.9744255009835996</v>
       </c>
       <c r="J21">
-        <v>0.04967170962441259</v>
+        <v>0.07531296749559147</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.502379851781825</v>
+        <v>0.7202312754533438</v>
       </c>
       <c r="N21">
-        <v>0.5355189132650295</v>
+        <v>1.407214015908025</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.663321887201391</v>
+        <v>1.846731408901007</v>
       </c>
       <c r="C22">
-        <v>2.211339019376055</v>
+        <v>0.6777233024186557</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1116373803176351</v>
+        <v>0.2422533052919178</v>
       </c>
       <c r="F22">
-        <v>3.629250591854287</v>
+        <v>2.876404802600405</v>
       </c>
       <c r="G22">
-        <v>0.0007351007696158589</v>
+        <v>0.002443182848742313</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.175003900622059</v>
+        <v>0.984528461969731</v>
       </c>
       <c r="J22">
-        <v>0.05151036883665938</v>
+        <v>0.0751728322485441</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.622065911296914</v>
+        <v>0.7474377316471816</v>
       </c>
       <c r="N22">
-        <v>0.5037778184855028</v>
+        <v>1.393814351739898</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.431319294120271</v>
+        <v>1.791110961183563</v>
       </c>
       <c r="C23">
-        <v>2.118239772371339</v>
+        <v>0.6561500994665721</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1090778430265509</v>
+        <v>0.2419215539073605</v>
       </c>
       <c r="F23">
-        <v>3.501187465243021</v>
+        <v>2.854658603573938</v>
       </c>
       <c r="G23">
-        <v>0.0007389956827779064</v>
+        <v>0.002445191383113228</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.135500661360368</v>
+        <v>0.9790809690140492</v>
       </c>
       <c r="J23">
-        <v>0.05049974675675273</v>
+        <v>0.0752436274586934</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.557917191301101</v>
+        <v>0.7328904698633494</v>
       </c>
       <c r="N23">
-        <v>0.5204731878929323</v>
+        <v>1.400914903048289</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.574193667917541</v>
+        <v>1.58158449433364</v>
       </c>
       <c r="C24">
-        <v>1.776057623558074</v>
+        <v>0.5748935854873594</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09954760845900168</v>
+        <v>0.2407505228570592</v>
       </c>
       <c r="F24">
-        <v>3.035730261156829</v>
+        <v>2.775222164863521</v>
       </c>
       <c r="G24">
-        <v>0.0007538022039832462</v>
+        <v>0.002453085027437708</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9951884373732724</v>
+        <v>0.9596593301831291</v>
       </c>
       <c r="J24">
-        <v>0.04727326370572982</v>
+        <v>0.07559915410310936</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.320462905140047</v>
+        <v>0.6783793832224632</v>
       </c>
       <c r="N24">
-        <v>0.5888225854619122</v>
+        <v>1.428926469039595</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.685305685667686</v>
+        <v>1.357921279209279</v>
       </c>
       <c r="C25">
-        <v>1.424163331349519</v>
+        <v>0.4881620077148909</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08956057281883645</v>
+        <v>0.2396719679884782</v>
       </c>
       <c r="F25">
-        <v>2.567586089412714</v>
+        <v>2.69572385872064</v>
       </c>
       <c r="G25">
-        <v>0.0007700154137209702</v>
+        <v>0.002462216960071617</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8599379806816358</v>
+        <v>0.9412559069706177</v>
       </c>
       <c r="J25">
-        <v>0.04483686545392374</v>
+        <v>0.07616671566664124</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.073594379689361</v>
+        <v>0.6208199790538274</v>
       </c>
       <c r="N25">
-        <v>0.6719231733617121</v>
+        <v>1.461512191497867</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_116/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.195153607888756</v>
+        <v>3.052610081944067</v>
       </c>
       <c r="C2">
-        <v>0.4250335635850888</v>
+        <v>1.175575341187539</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2390384550666873</v>
+        <v>0.08241130018527087</v>
       </c>
       <c r="F2">
-        <v>2.642434881980307</v>
+        <v>2.245316874525244</v>
       </c>
       <c r="G2">
-        <v>0.002469478123309374</v>
+        <v>0.000782268728712538</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9298523480855465</v>
+        <v>0.7710043372859019</v>
       </c>
       <c r="J2">
-        <v>0.07674031380287261</v>
+        <v>0.04374103491563019</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5794862744444842</v>
+        <v>0.8976432701300965</v>
       </c>
       <c r="N2">
-        <v>1.487528214287565</v>
+        <v>0.7398763280476857</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.08599095788918</v>
+        <v>2.633708926634313</v>
       </c>
       <c r="C3">
-        <v>0.3826800574205151</v>
+        <v>1.011880931972769</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2387103092931895</v>
+        <v>0.07767433091233045</v>
       </c>
       <c r="F3">
-        <v>2.609556416485916</v>
+        <v>2.038053508627371</v>
       </c>
       <c r="G3">
-        <v>0.002474737504074486</v>
+        <v>0.0007908150442955459</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9234423147897743</v>
+        <v>0.7160428172096189</v>
       </c>
       <c r="J3">
-        <v>0.07722489474246785</v>
+        <v>0.04335177765404197</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5521185960387314</v>
+        <v>0.7811219893991321</v>
       </c>
       <c r="N3">
-        <v>1.506413811459538</v>
+        <v>0.789610785246353</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019516279113759</v>
+        <v>2.380316272758819</v>
       </c>
       <c r="C4">
-        <v>0.3568782838476352</v>
+        <v>0.9132206018317106</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2385590985326775</v>
+        <v>0.07481388460565697</v>
       </c>
       <c r="F4">
-        <v>2.590954148733559</v>
+        <v>1.915468263580337</v>
       </c>
       <c r="G4">
-        <v>0.002478134767215045</v>
+        <v>0.0007961949950033543</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.920150138655174</v>
+        <v>0.6845329041085577</v>
       </c>
       <c r="J4">
-        <v>0.07756929171092253</v>
+        <v>0.04326385287944845</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5356303733642136</v>
+        <v>0.7106596372088276</v>
       </c>
       <c r="N4">
-        <v>1.518625668903734</v>
+        <v>0.8218097067088372</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9925645565521108</v>
+        <v>2.277874406522017</v>
       </c>
       <c r="C5">
-        <v>0.3464140118927901</v>
+        <v>0.8734129489359646</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2385101806680101</v>
+        <v>0.07365964412338322</v>
       </c>
       <c r="F5">
-        <v>2.58377087922706</v>
+        <v>1.866579025508045</v>
       </c>
       <c r="G5">
-        <v>0.00247956156725822</v>
+        <v>0.0007984224324476534</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9189694931319821</v>
+        <v>0.6722033713587763</v>
       </c>
       <c r="J5">
-        <v>0.07772136029099386</v>
+        <v>0.04326290344976158</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5289904879460039</v>
+        <v>0.6821829275399125</v>
       </c>
       <c r="N5">
-        <v>1.52375657140588</v>
+        <v>0.8353279200667139</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9880974909277711</v>
+        <v>2.260909495014346</v>
       </c>
       <c r="C6">
-        <v>0.3446794281148584</v>
+        <v>0.8668250458848377</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2385028268329812</v>
+        <v>0.0734686544720482</v>
       </c>
       <c r="F6">
-        <v>2.582602060968753</v>
+        <v>1.858522285964696</v>
       </c>
       <c r="G6">
-        <v>0.002479801050757527</v>
+        <v>0.000798794463063452</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9187831422825994</v>
+        <v>0.670185505199747</v>
       </c>
       <c r="J6">
-        <v>0.07774731752411057</v>
+        <v>0.04326476701154647</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5278927186395563</v>
+        <v>0.6774677578107955</v>
       </c>
       <c r="N6">
-        <v>1.524617870980158</v>
+        <v>0.8375960018498532</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.01915224495923</v>
+        <v>2.378931573192801</v>
       </c>
       <c r="C7">
-        <v>0.3567369572244843</v>
+        <v>0.9126822185798744</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2385583872981289</v>
+        <v>0.07479827273475514</v>
       </c>
       <c r="F7">
-        <v>2.590855665726892</v>
+        <v>1.914804752426491</v>
       </c>
       <c r="G7">
-        <v>0.002478153837766947</v>
+        <v>0.0007962248907605555</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9201335656023133</v>
+        <v>0.6843646194180266</v>
       </c>
       <c r="J7">
-        <v>0.07757129517030137</v>
+        <v>0.04326370274537794</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5355405050950779</v>
+        <v>0.710274673612588</v>
       </c>
       <c r="N7">
-        <v>1.518694241190055</v>
+        <v>0.8219904374371438</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.157398912503879</v>
+        <v>2.907292096644767</v>
       </c>
       <c r="C8">
-        <v>0.4103872311790724</v>
+        <v>1.118707121280806</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2389149121691574</v>
+        <v>0.08076758533566775</v>
       </c>
       <c r="F8">
-        <v>2.630768555514194</v>
+        <v>2.172812686429623</v>
       </c>
       <c r="G8">
-        <v>0.002471256781851396</v>
+        <v>0.0007851891031556568</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9275080402742475</v>
+        <v>0.7515569984515977</v>
       </c>
       <c r="J8">
-        <v>0.07689763476517797</v>
+        <v>0.04357349667564492</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5699842719937322</v>
+        <v>0.8572201843583969</v>
       </c>
       <c r="N8">
-        <v>1.493911852784112</v>
+        <v>0.7566666626160199</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.432958644386758</v>
+        <v>3.980802786290269</v>
       </c>
       <c r="C9">
-        <v>0.5172603433704808</v>
+        <v>1.540806174960721</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2400104589387482</v>
+        <v>0.09289015801594758</v>
       </c>
       <c r="F9">
-        <v>2.72168329188267</v>
+        <v>2.721384160585956</v>
       </c>
       <c r="G9">
-        <v>0.002459057806668483</v>
+        <v>0.0007645115209844968</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9471188295091366</v>
+        <v>0.9036479941051638</v>
       </c>
       <c r="J9">
-        <v>0.07595117220711955</v>
+        <v>0.04553704984029139</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6400451174903594</v>
+        <v>1.15571705702817</v>
       </c>
       <c r="N9">
-        <v>1.450220288993698</v>
+        <v>0.6428005743411376</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.638265611294912</v>
+        <v>4.803562789319017</v>
       </c>
       <c r="C10">
-        <v>0.5968737239617212</v>
+        <v>1.867352923450994</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2410539280330752</v>
+        <v>0.1021087192848817</v>
       </c>
       <c r="F10">
-        <v>2.796292662816455</v>
+        <v>3.159041667960935</v>
       </c>
       <c r="G10">
-        <v>0.002450894217336804</v>
+        <v>0.0007497699681873824</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9647284474068414</v>
+        <v>1.031836702535799</v>
       </c>
       <c r="J10">
-        <v>0.07548804680949672</v>
+        <v>0.0480561928044132</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6930765338651668</v>
+        <v>1.384071735128771</v>
       </c>
       <c r="N10">
-        <v>1.421136146810042</v>
+        <v>0.5694644033609677</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.732315588785696</v>
+        <v>5.188184696450833</v>
       </c>
       <c r="C11">
-        <v>0.6333470441033455</v>
+        <v>2.020892172537003</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2415798017255142</v>
+        <v>0.1063859810753627</v>
       </c>
       <c r="F11">
-        <v>2.831954939094089</v>
+        <v>3.367893551192083</v>
       </c>
       <c r="G11">
-        <v>0.002447351864318249</v>
+        <v>0.000743125978784059</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9734484945874442</v>
+        <v>1.094781807210794</v>
       </c>
       <c r="J11">
-        <v>0.07532864387620108</v>
+        <v>0.04950217899914477</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7175457221779169</v>
+        <v>1.490630674175549</v>
       </c>
       <c r="N11">
-        <v>1.40856535719692</v>
+        <v>0.538773553020917</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.768026127236624</v>
+        <v>5.335603237113503</v>
       </c>
       <c r="C12">
-        <v>0.6471967504994609</v>
+        <v>2.079889710990869</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2417862420703756</v>
+        <v>0.1080192662704</v>
       </c>
       <c r="F12">
-        <v>2.845708695637626</v>
+        <v>3.448599229026996</v>
       </c>
       <c r="G12">
-        <v>0.002446034946219204</v>
+        <v>0.0007406155708441498</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9768536349465649</v>
+        <v>1.119386609692924</v>
       </c>
       <c r="J12">
-        <v>0.07527572630507251</v>
+        <v>0.05009943999369426</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.726861502160375</v>
+        <v>1.531435278857032</v>
       </c>
       <c r="N12">
-        <v>1.403900494790065</v>
+        <v>0.5275781251197387</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.760330933387479</v>
+        <v>5.3037703260228</v>
       </c>
       <c r="C13">
-        <v>0.6442122579688316</v>
+        <v>2.067143071479563</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2417414575510826</v>
+        <v>0.10766687767671</v>
       </c>
       <c r="F13">
-        <v>2.842735468045248</v>
+        <v>3.431142123159674</v>
       </c>
       <c r="G13">
-        <v>0.002446317481117927</v>
+        <v>0.0007411560454708456</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9761156771883179</v>
+        <v>1.11405153319734</v>
       </c>
       <c r="J13">
-        <v>0.07528679078764</v>
+        <v>0.04996848351945005</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7248529623381899</v>
+        <v>1.522625949350456</v>
       </c>
       <c r="N13">
-        <v>1.404900903494649</v>
+        <v>0.5299695464652316</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.735251585407013</v>
+        <v>5.200275657658722</v>
       </c>
       <c r="C14">
-        <v>0.6344856986647756</v>
+        <v>2.025727927224295</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2415966396579243</v>
+        <v>0.1065200704891609</v>
       </c>
       <c r="F14">
-        <v>2.833081464847538</v>
+        <v>3.374499494862647</v>
       </c>
       <c r="G14">
-        <v>0.002447243030563274</v>
+        <v>0.0007429193562674725</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9737265662734842</v>
+        <v>1.096790008244923</v>
       </c>
       <c r="J14">
-        <v>0.07532414069596172</v>
+        <v>0.04955027883996976</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7183111370032265</v>
+        <v>1.49397819275849</v>
       </c>
       <c r="N14">
-        <v>1.408179660539453</v>
+        <v>0.5378436842796717</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.719902294404847</v>
+        <v>5.137121854440124</v>
       </c>
       <c r="C15">
-        <v>0.6285328893791871</v>
+        <v>2.000475808149929</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2415088839134221</v>
+        <v>0.1058194367199512</v>
       </c>
       <c r="F15">
-        <v>2.827200613441562</v>
+        <v>3.340021828109599</v>
       </c>
       <c r="G15">
-        <v>0.002447813141888857</v>
+        <v>0.0007440000462115699</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9722766179417732</v>
+        <v>1.086320256928474</v>
       </c>
       <c r="J15">
-        <v>0.07534799027490635</v>
+        <v>0.04930080024322692</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7143105763092308</v>
+        <v>1.476491782565674</v>
       </c>
       <c r="N15">
-        <v>1.410200437362292</v>
+        <v>0.5427237360237882</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.632132544315084</v>
+        <v>4.778658300612335</v>
       </c>
       <c r="C16">
-        <v>0.5944953698332824</v>
+        <v>1.85743054459482</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2410205861161678</v>
+        <v>0.1018310003919183</v>
       </c>
       <c r="F16">
-        <v>2.793996837607438</v>
+        <v>3.145606788189923</v>
       </c>
       <c r="G16">
-        <v>0.00245112915334826</v>
+        <v>0.0007502051369729923</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.964172934662173</v>
+        <v>1.027824755634171</v>
       </c>
       <c r="J16">
-        <v>0.07549950204625588</v>
+        <v>0.04796826931211484</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6914843750933528</v>
+        <v>1.377167361194282</v>
       </c>
       <c r="N16">
-        <v>1.421971000135279</v>
+        <v>0.5715273553982456</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.578457549946279</v>
+        <v>4.561591213249415</v>
       </c>
       <c r="C17">
-        <v>0.5736810201110529</v>
+        <v>1.77104731026958</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2407341016840476</v>
+        <v>0.09940667862782604</v>
       </c>
       <c r="F17">
-        <v>2.774069591008015</v>
+        <v>3.028982969642897</v>
       </c>
       <c r="G17">
-        <v>0.002453207195176988</v>
+        <v>0.0007540253722883219</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9593840068890245</v>
+        <v>0.9931946501300501</v>
       </c>
       <c r="J17">
-        <v>0.0756056329902961</v>
+        <v>0.04723200708988173</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6775697448406817</v>
+        <v>1.316966722553516</v>
       </c>
       <c r="N17">
-        <v>1.429361223814468</v>
+        <v>0.5899097704142733</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.547646642996654</v>
+        <v>4.437694511590394</v>
       </c>
       <c r="C18">
-        <v>0.5617332590074398</v>
+        <v>1.721822454768414</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2405741455227179</v>
+        <v>0.09802004396277297</v>
       </c>
       <c r="F18">
-        <v>2.762769961275382</v>
+        <v>2.962808209031522</v>
       </c>
       <c r="G18">
-        <v>0.002454418562080288</v>
+        <v>0.0007562287361603248</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9566962458493151</v>
+        <v>0.9737053176008033</v>
       </c>
       <c r="J18">
-        <v>0.0756714986204976</v>
+        <v>0.04683632131510151</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6695988698243838</v>
+        <v>1.282588540322479</v>
       </c>
       <c r="N18">
-        <v>1.433673948496164</v>
+        <v>0.6007312990911444</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.537225116222032</v>
+        <v>4.39590116696462</v>
       </c>
       <c r="C19">
-        <v>0.557692057999418</v>
+        <v>1.705230972819436</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2405208171023112</v>
+        <v>0.09755184506757431</v>
       </c>
       <c r="F19">
-        <v>2.758971875618641</v>
+        <v>2.940551782259604</v>
       </c>
       <c r="G19">
-        <v>0.00245483148510066</v>
+        <v>0.0007569758950281327</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9557976408987372</v>
+        <v>0.9671773390499823</v>
       </c>
       <c r="J19">
-        <v>0.07569462559584395</v>
+        <v>0.04670693837017836</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6669056353969864</v>
+        <v>1.270989288409538</v>
       </c>
       <c r="N19">
-        <v>1.435144805685859</v>
+        <v>0.6044367532996731</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.584164964449712</v>
+        <v>4.584597657966242</v>
       </c>
       <c r="C20">
-        <v>0.5758942405773269</v>
+        <v>1.780194358035544</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2407640997951468</v>
+        <v>0.09966393717646582</v>
       </c>
       <c r="F20">
-        <v>2.776174103078091</v>
+        <v>3.041302731359281</v>
       </c>
       <c r="G20">
-        <v>0.002452984315471925</v>
+        <v>0.0007536180970711006</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9598868853342708</v>
+        <v>0.9968359857609244</v>
       </c>
       <c r="J20">
-        <v>0.0755938356052539</v>
+        <v>0.04730746265664365</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6790476206715397</v>
+        <v>1.323349091799983</v>
       </c>
       <c r="N20">
-        <v>1.428568094570551</v>
+        <v>0.5879269280546495</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.742615382737824</v>
+        <v>5.23062404016656</v>
       </c>
       <c r="C21">
-        <v>0.6373415831452007</v>
+        <v>2.037868140322018</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2416389784335884</v>
+        <v>0.1068565333925093</v>
       </c>
       <c r="F21">
-        <v>2.83591030285757</v>
+        <v>3.391091039540584</v>
       </c>
       <c r="G21">
-        <v>0.002446970510505816</v>
+        <v>0.0007424013085838944</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9744255009835996</v>
+        <v>1.101838376806342</v>
       </c>
       <c r="J21">
-        <v>0.07531296749559147</v>
+        <v>0.04967170962439127</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7202312754533438</v>
+        <v>1.502379851781797</v>
       </c>
       <c r="N21">
-        <v>1.407214015908025</v>
+        <v>0.5355189132650438</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.846731408901007</v>
+        <v>5.663321887201505</v>
       </c>
       <c r="C22">
-        <v>0.6777233024186557</v>
+        <v>2.211339019376339</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2422533052919178</v>
+        <v>0.1116373803176351</v>
       </c>
       <c r="F22">
-        <v>2.876404802600405</v>
+        <v>3.629250591854287</v>
       </c>
       <c r="G22">
-        <v>0.002443182848742313</v>
+        <v>0.0007351007696746038</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.984528461969731</v>
+        <v>1.175003900622059</v>
       </c>
       <c r="J22">
-        <v>0.0751728322485441</v>
+        <v>0.05151036883662385</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7474377316471816</v>
+        <v>1.622065911296914</v>
       </c>
       <c r="N22">
-        <v>1.393814351739898</v>
+        <v>0.5037778184854886</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.791110961183563</v>
+        <v>5.431319294120215</v>
       </c>
       <c r="C23">
-        <v>0.6561500994665721</v>
+        <v>2.118239772371169</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2419215539073605</v>
+        <v>0.1090778430264656</v>
       </c>
       <c r="F23">
-        <v>2.854658603573938</v>
+        <v>3.501187465242992</v>
       </c>
       <c r="G23">
-        <v>0.002445191383113228</v>
+        <v>0.0007389956828340326</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9790809690140492</v>
+        <v>1.135500661360382</v>
       </c>
       <c r="J23">
-        <v>0.0752436274586934</v>
+        <v>0.05049974675675273</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7328904698633494</v>
+        <v>1.557917191301073</v>
       </c>
       <c r="N23">
-        <v>1.400914903048289</v>
+        <v>0.5204731878929465</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.58158449433364</v>
+        <v>4.574193667917598</v>
       </c>
       <c r="C24">
-        <v>0.5748935854873594</v>
+        <v>1.776057623558017</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2407505228570592</v>
+        <v>0.09954760845899813</v>
       </c>
       <c r="F24">
-        <v>2.775222164863521</v>
+        <v>3.0357302611568</v>
       </c>
       <c r="G24">
-        <v>0.002453085027437708</v>
+        <v>0.0007538022039819682</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9596593301831291</v>
+        <v>0.9951884373732724</v>
       </c>
       <c r="J24">
-        <v>0.07559915410310936</v>
+        <v>0.04727326370561258</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6783793832224632</v>
+        <v>1.320462905140033</v>
       </c>
       <c r="N24">
-        <v>1.428926469039595</v>
+        <v>0.5888225854619051</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.357921279209279</v>
+        <v>3.685305685667686</v>
       </c>
       <c r="C25">
-        <v>0.4881620077148909</v>
+        <v>1.424163331349348</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2396719679884782</v>
+        <v>0.08956057281884355</v>
       </c>
       <c r="F25">
-        <v>2.69572385872064</v>
+        <v>2.567586089412714</v>
       </c>
       <c r="G25">
-        <v>0.002462216960071617</v>
+        <v>0.0007700154137780572</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9412559069706177</v>
+        <v>0.8599379806816358</v>
       </c>
       <c r="J25">
-        <v>0.07616671566664124</v>
+        <v>0.04483686545392729</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6208199790538274</v>
+        <v>1.073594379689361</v>
       </c>
       <c r="N25">
-        <v>1.461512191497867</v>
+        <v>0.671923173361705</v>
       </c>
       <c r="O25">
         <v>0</v>
